--- a/Income/WAB_inc.xlsx
+++ b/Income/WAB_inc.xlsx
@@ -2184,16 +2184,16 @@
         <v>0.2512</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.2609</v>
+        <v>0.2679</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.2687</v>
+        <v>0.2756</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.2745</v>
+        <v>0.281</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.271</v>
+        <v>0.2778</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2734</v>
@@ -2565,16 +2565,16 @@
         <v>0.0549</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0585</v>
+        <v>0.0586</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.0529</v>
+        <v>0.053</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0518</v>
+        <v>0.0519</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0397</v>
+        <v>0.0398</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0324</v>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.1553</v>
+        <v>0.1407</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.0885</v>
@@ -3702,22 +3702,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.0</v>
+        <v>0.1718</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.1762</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1923</v>
+        <v>0.1626</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.1803</v>
+        <v>0.1511</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.169</v>
+        <v>0.1415</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1483</v>
+        <v>0.1198</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1174</v>
